--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed5/result_data_KNN.xlsx
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.414</v>
+        <v>-21.992</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
